--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF0092-01F5-4099-B46B-5DDC128DB6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499AB760-B434-4A24-83D9-D9F5A4BEF159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="91">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>SOLPV</t>
+  </si>
+  <si>
+    <t>SOLGEN</t>
+  </si>
+  <si>
+    <t>WNDGEN</t>
+  </si>
+  <si>
+    <t>ELCSOL</t>
+  </si>
+  <si>
+    <t>ELCWND</t>
   </si>
 </sst>
 </file>
@@ -661,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +755,7 @@
         <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -757,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1161,7 +1173,7 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90:I91"/>
+      <selection activeCell="F90" sqref="F90:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1374,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -1381,7 +1393,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1796,7 +1808,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
@@ -1815,7 +1827,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
@@ -2230,7 +2242,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
@@ -2249,7 +2261,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
@@ -2664,7 +2676,7 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
@@ -2683,7 +2695,7 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">

--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499AB760-B434-4A24-83D9-D9F5A4BEF159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896D60C7-7780-4054-9E27-A040997981DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -283,18 +283,6 @@
     <t>C_Neg_AndOr</t>
   </si>
   <si>
-    <t>SOLELC</t>
-  </si>
-  <si>
-    <t>WNDELC</t>
-  </si>
-  <si>
-    <t>WNDTRBN</t>
-  </si>
-  <si>
-    <t>SOLPV</t>
-  </si>
-  <si>
     <t>SOLGEN</t>
   </si>
   <si>
@@ -305,6 +293,18 @@
   </si>
   <si>
     <t>ELCWND</t>
+  </si>
+  <si>
+    <t>*SOLPV*</t>
+  </si>
+  <si>
+    <t>*WNDTRBN*</t>
+  </si>
+  <si>
+    <t>*SOLELC*</t>
+  </si>
+  <si>
+    <t>*WNDELC*</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,10 +752,10 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90:F91"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,11 +1370,11 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -1389,11 +1389,11 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1804,11 +1804,11 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
@@ -1823,11 +1823,11 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
@@ -2238,11 +2238,11 @@
         <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
@@ -2257,11 +2257,11 @@
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
@@ -2672,11 +2672,11 @@
         <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
@@ -2691,11 +2691,11 @@
         <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">

--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896D60C7-7780-4054-9E27-A040997981DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370AE1C-54BF-4434-8540-CB61A977578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -289,22 +289,22 @@
     <t>WNDGEN</t>
   </si>
   <si>
-    <t>ELCSOL</t>
-  </si>
-  <si>
-    <t>ELCWND</t>
-  </si>
-  <si>
     <t>*SOLPV*</t>
   </si>
   <si>
     <t>*WNDTRBN*</t>
   </si>
   <si>
-    <t>*SOLELC*</t>
-  </si>
-  <si>
-    <t>*WNDELC*</t>
+    <t>*SOL*</t>
+  </si>
+  <si>
+    <t>*WND*</t>
+  </si>
+  <si>
+    <t>SOLELC</t>
+  </si>
+  <si>
+    <t>WNDELC</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>83</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>84</v>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,11 +1370,11 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -1389,11 +1389,11 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1804,11 +1804,11 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
@@ -1823,11 +1823,11 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
@@ -2238,11 +2238,11 @@
         <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
@@ -2257,11 +2257,11 @@
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
@@ -2672,11 +2672,11 @@
         <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
@@ -2691,11 +2691,11 @@
         <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">

--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370AE1C-54BF-4434-8540-CB61A977578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983988A-75F6-4745-9AE2-B96B0021E6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="89">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -283,18 +283,6 @@
     <t>C_Neg_AndOr</t>
   </si>
   <si>
-    <t>SOLGEN</t>
-  </si>
-  <si>
-    <t>WNDGEN</t>
-  </si>
-  <si>
-    <t>*SOLPV*</t>
-  </si>
-  <si>
-    <t>*WNDTRBN*</t>
-  </si>
-  <si>
     <t>*SOL*</t>
   </si>
   <si>
@@ -305,6 +293,12 @@
   </si>
   <si>
     <t>WNDELC</t>
+  </si>
+  <si>
+    <t>WNDTRBN</t>
+  </si>
+  <si>
+    <t>SOLPV</t>
   </si>
 </sst>
 </file>
@@ -673,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,10 +746,10 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -766,10 +760,10 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -1172,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D90" sqref="D90:F91"/>
     </sheetView>
   </sheetViews>
@@ -1370,11 +1364,11 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -1389,11 +1383,11 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1804,11 +1798,11 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
@@ -1823,11 +1817,11 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
@@ -2238,11 +2232,11 @@
         <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
@@ -2257,11 +2251,11 @@
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
@@ -2672,11 +2666,11 @@
         <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
@@ -2691,11 +2685,11 @@
         <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">

--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983988A-75F6-4745-9AE2-B96B0021E6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0200B9-B67B-448E-90EC-5A21EE4A3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="87">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -287,12 +287,6 @@
   </si>
   <si>
     <t>*WND*</t>
-  </si>
-  <si>
-    <t>SOLELC</t>
-  </si>
-  <si>
-    <t>WNDELC</t>
   </si>
   <si>
     <t>WNDTRBN</t>
@@ -665,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,43 +738,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -791,10 +785,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -804,11 +798,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -819,10 +813,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -832,11 +829,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>79</v>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -846,14 +843,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
       <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -864,10 +861,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -877,14 +874,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -895,10 +889,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -908,11 +902,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>75</v>
+      <c r="C16" t="s">
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -923,10 +917,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -936,11 +933,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>79</v>
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -950,14 +947,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
       <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -968,10 +965,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -981,14 +978,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -999,10 +993,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1012,11 +1006,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>75</v>
+      <c r="C23" t="s">
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1027,10 +1021,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1040,11 +1037,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>79</v>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1054,14 +1051,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
       <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1072,10 +1069,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -1085,14 +1082,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1103,10 +1097,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -1116,44 +1110,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>75</v>
+      <c r="C30" t="s">
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1167,7 +1133,7 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:F91"/>
+      <selection activeCell="B90" sqref="B90:F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,12 +1329,15 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -1382,12 +1351,15 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1797,12 +1769,15 @@
       <c r="A38" t="s">
         <v>14</v>
       </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
@@ -1816,12 +1791,15 @@
       <c r="A39" t="s">
         <v>14</v>
       </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
@@ -2231,12 +2209,15 @@
       <c r="A64" t="s">
         <v>14</v>
       </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
@@ -2250,12 +2231,15 @@
       <c r="A65" t="s">
         <v>14</v>
       </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
@@ -2665,12 +2649,15 @@
       <c r="A90" t="s">
         <v>14</v>
       </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
@@ -2684,12 +2671,15 @@
       <c r="A91" t="s">
         <v>14</v>
       </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">

--- a/Sets-DemoModels.xlsx
+++ b/Sets-DemoModels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2EBAE-A778-47E8-91C2-D4CEF34E5A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EDA36A-90F4-4369-8133-940B574E8AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -281,6 +281,21 @@
   </si>
   <si>
     <t>PSET_MANHEAT_DECELC</t>
+  </si>
+  <si>
+    <t>SOLELC</t>
+  </si>
+  <si>
+    <t>WNDELC</t>
+  </si>
+  <si>
+    <t>NRG_SOLELC</t>
+  </si>
+  <si>
+    <t>NRG_WNDELC</t>
+  </si>
+  <si>
+    <t>WNDELC,SOLELC</t>
   </si>
 </sst>
 </file>
@@ -687,17 +702,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -773,14 +789,14 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
@@ -792,14 +808,14 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
@@ -814,11 +830,11 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
@@ -833,11 +849,11 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
@@ -852,11 +868,11 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -871,11 +887,11 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
@@ -890,11 +906,11 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
@@ -909,11 +925,11 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
@@ -928,11 +944,11 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
@@ -947,11 +963,11 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -966,11 +982,11 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
@@ -984,23 +1000,39 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
@@ -1037,6 +1069,28 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1046,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,7 +1195,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
@@ -1164,7 +1218,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
@@ -1183,7 +1237,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
